--- a/doc/stream_test.xlsx
+++ b/doc/stream_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiwara.manabu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiwara.manabu/go/src/github.com/fujiwaram/zip-test2/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A01FCBDA-E227-1942-B4EE-171CB6A208DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF78ED2-B2E5-084C-BA3B-28004B51B2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18260" yWindow="-19860" windowWidth="28300" windowHeight="17440" xr2:uid="{4B468200-4106-1640-93FC-2A11B6F9D5D8}"/>
+    <workbookView xWindow="18260" yWindow="-19860" windowWidth="34680" windowHeight="19220" xr2:uid="{4B468200-4106-1640-93FC-2A11B6F9D5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>01(52KB).mov</t>
   </si>
@@ -102,6 +102,37 @@
   </si>
   <si>
     <t>(KB)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>saving</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>waste</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>saving(HeapAlloc)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>waste(HeapAlloc)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>saving(NumGC)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>waste(NumGC)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>all.zip</t>
+  </si>
+  <si>
+    <t>zip</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -186,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +236,12 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -221,6 +258,2439 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TotalAlloc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>saving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$29:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>01(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>zip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6522-7B4F-950D-82F5B970F30D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waste</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$29:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>01(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>zip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>261727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>458125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6522-7B4F-950D-82F5B970F30D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1983510496"/>
+        <c:axId val="1983512224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1983510496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1983512224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1983512224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1983510496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="+mn-ea"/>
+          <a:ea typeface="+mn-ea"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>HeapAlloc &amp; NumGC</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>saving(HeapAlloc)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$42:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>01(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>zip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18730</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4888-444D-87F3-FA3C61368582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waste(HeapAlloc)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$42:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>01(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>zip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30820</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4888-444D-87F3-FA3C61368582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1551973024"/>
+        <c:axId val="1551925248"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>saving(NumGC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$42:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>01(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>zip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4888-444D-87F3-FA3C61368582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waste(NumGC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$42:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>01(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05(52KB).mov</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06(1.5MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07(8.4MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08(13.7MB).mov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>zip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4888-444D-87F3-FA3C61368582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1552243280"/>
+        <c:axId val="1552137536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1551973024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1551925248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1551925248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1551973024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1552137536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552243280"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1552243280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1552137536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A98A47-47AA-2ABF-E145-50DFC021B768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E69C02-532F-BD5A-8333-E7BB5681AAF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,24 +2990,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B0AB4-F968-704B-A706-1025E93C7FA8}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="3" t="s">
@@ -567,19 +3039,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="D4" s="5">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="E4" s="5">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="F4" s="5">
         <v>4</v>
       </c>
       <c r="G4" s="5">
-        <v>16831</v>
+        <v>17087</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
@@ -587,45 +3059,45 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>1896</v>
+        <v>18255</v>
       </c>
       <c r="D5" s="5">
-        <v>1896</v>
+        <v>18255</v>
       </c>
       <c r="E5" s="5">
-        <v>2877</v>
+        <v>19382</v>
       </c>
       <c r="F5" s="5">
         <v>4</v>
       </c>
       <c r="G5" s="5">
-        <v>16831</v>
+        <v>34047</v>
       </c>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>18253</v>
+        <v>18325</v>
       </c>
       <c r="D6" s="5">
-        <v>18253</v>
+        <v>18325</v>
       </c>
       <c r="E6" s="5">
-        <v>19344</v>
+        <v>19453</v>
       </c>
       <c r="F6" s="5">
         <v>4</v>
       </c>
       <c r="G6" s="5">
-        <v>33535</v>
+        <v>34047</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
@@ -633,22 +3105,22 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>18254</v>
+        <v>18491</v>
       </c>
       <c r="D7" s="5">
-        <v>18254</v>
+        <v>18491</v>
       </c>
       <c r="E7" s="5">
-        <v>19345</v>
+        <v>19618</v>
       </c>
       <c r="F7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>33535</v>
+        <v>34047</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
@@ -656,22 +3128,22 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
-        <v>18322</v>
+        <v>18603</v>
       </c>
       <c r="D8" s="5">
-        <v>18322</v>
+        <v>18603</v>
       </c>
       <c r="E8" s="5">
-        <v>19413</v>
+        <v>19731</v>
       </c>
       <c r="F8" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5">
-        <v>33791</v>
+        <v>34047</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
@@ -679,22 +3151,22 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
-        <v>18322</v>
+        <v>18667</v>
       </c>
       <c r="D9" s="5">
-        <v>18322</v>
+        <v>18667</v>
       </c>
       <c r="E9" s="5">
-        <v>19413</v>
+        <v>19794</v>
       </c>
       <c r="F9" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5">
-        <v>33791</v>
+        <v>34047</v>
       </c>
       <c r="H9" s="5">
         <v>2</v>
@@ -702,22 +3174,22 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
-        <v>18525</v>
+        <v>18730</v>
       </c>
       <c r="D10" s="5">
-        <v>18525</v>
+        <v>18730</v>
       </c>
       <c r="E10" s="5">
-        <v>19615</v>
+        <v>19857</v>
       </c>
       <c r="F10" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="5">
-        <v>33791</v>
+        <v>34047</v>
       </c>
       <c r="H10" s="5">
         <v>2</v>
@@ -725,22 +3197,22 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
-        <v>18525</v>
+        <v>18849</v>
       </c>
       <c r="D11" s="5">
-        <v>18525</v>
+        <v>18849</v>
       </c>
       <c r="E11" s="5">
-        <v>19615</v>
+        <v>19977</v>
       </c>
       <c r="F11" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" s="5">
-        <v>33791</v>
+        <v>34047</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
@@ -748,612 +3220,572 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5">
-        <v>18601</v>
+        <v>18849</v>
       </c>
       <c r="D12" s="5">
-        <v>18601</v>
+        <v>18849</v>
       </c>
       <c r="E12" s="5">
-        <v>19692</v>
+        <v>19977</v>
       </c>
       <c r="F12" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5">
-        <v>33791</v>
+        <v>34047</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2070</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2070</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3053</v>
+      </c>
+      <c r="F16" s="5">
         <v>4</v>
       </c>
-      <c r="C13" s="5">
-        <v>18601</v>
-      </c>
-      <c r="D13" s="5">
-        <v>18601</v>
-      </c>
-      <c r="E13" s="5">
-        <v>19692</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="G16" s="5">
+        <v>16831</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3505</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3505</v>
+      </c>
+      <c r="E17" s="5">
+        <v>11339</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>26111</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10043</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10043</v>
+      </c>
+      <c r="E18" s="5">
+        <v>52144</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5">
+        <v>50687</v>
+      </c>
+      <c r="H18" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>30820</v>
+      </c>
+      <c r="D19" s="5">
+        <v>30820</v>
+      </c>
+      <c r="E19" s="5">
+        <v>132283</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5">
+        <v>67071</v>
+      </c>
+      <c r="H19" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>31102</v>
+      </c>
+      <c r="D20" s="5">
+        <v>31102</v>
+      </c>
+      <c r="E20" s="5">
+        <v>132565</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5">
+        <v>67071</v>
+      </c>
+      <c r="H20" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>39368</v>
+      </c>
+      <c r="D21" s="5">
+        <v>39368</v>
+      </c>
+      <c r="E21" s="5">
+        <v>140831</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>67071</v>
+      </c>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5">
-        <v>33791</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>18664</v>
-      </c>
-      <c r="D14" s="5">
-        <v>18664</v>
-      </c>
-      <c r="E14" s="5">
-        <v>19755</v>
-      </c>
-      <c r="F14" s="5">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5">
-        <v>33791</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>18664</v>
-      </c>
-      <c r="D15" s="5">
-        <v>18664</v>
-      </c>
-      <c r="E15" s="5">
-        <v>19755</v>
-      </c>
-      <c r="F15" s="5">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5">
-        <v>33791</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <v>18727</v>
-      </c>
-      <c r="D16" s="5">
-        <v>18727</v>
-      </c>
-      <c r="E16" s="5">
-        <v>19818</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="C22" s="5">
+        <v>10045</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10045</v>
+      </c>
+      <c r="E22" s="5">
+        <v>181589</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4</v>
+      </c>
+      <c r="G22" s="5">
+        <v>80466</v>
+      </c>
+      <c r="H22" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="5">
-        <v>33791</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>18727</v>
-      </c>
-      <c r="D17" s="5">
-        <v>18727</v>
-      </c>
-      <c r="E17" s="5">
-        <v>19818</v>
-      </c>
-      <c r="F17" s="5">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5">
-        <v>33791</v>
-      </c>
-      <c r="H17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5">
-        <v>18846</v>
-      </c>
-      <c r="D18" s="5">
-        <v>18846</v>
-      </c>
-      <c r="E18" s="5">
-        <v>19937</v>
-      </c>
-      <c r="F18" s="5">
-        <v>7</v>
-      </c>
-      <c r="G18" s="5">
-        <v>33791</v>
-      </c>
-      <c r="H18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
-        <v>18846</v>
-      </c>
-      <c r="D19" s="5">
-        <v>18846</v>
-      </c>
-      <c r="E19" s="5">
-        <v>19937</v>
-      </c>
-      <c r="F19" s="5">
-        <v>7</v>
-      </c>
-      <c r="G19" s="5">
-        <v>33791</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C23" s="5">
-        <v>2072</v>
+        <v>30821</v>
       </c>
       <c r="D23" s="5">
-        <v>2072</v>
+        <v>30821</v>
       </c>
       <c r="E23" s="5">
-        <v>3053</v>
+        <v>261727</v>
       </c>
       <c r="F23" s="5">
         <v>4</v>
       </c>
       <c r="G23" s="5">
-        <v>17087</v>
+        <v>80466</v>
       </c>
       <c r="H23" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="2" t="s">
-        <v>0</v>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C24" s="5">
-        <v>2074</v>
+        <v>71933</v>
       </c>
       <c r="D24" s="5">
-        <v>2074</v>
+        <v>71933</v>
       </c>
       <c r="E24" s="5">
-        <v>3055</v>
+        <v>458125</v>
       </c>
       <c r="F24" s="5">
         <v>4</v>
       </c>
       <c r="G24" s="5">
-        <v>17087</v>
+        <v>121938</v>
       </c>
       <c r="H24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3504</v>
-      </c>
-      <c r="D25" s="5">
-        <v>3504</v>
-      </c>
-      <c r="E25" s="5">
-        <v>11300</v>
-      </c>
-      <c r="F25" s="5">
-        <v>4</v>
-      </c>
-      <c r="G25" s="5">
-        <v>26175</v>
-      </c>
-      <c r="H25" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3506</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3506</v>
-      </c>
-      <c r="E26" s="5">
-        <v>11302</v>
-      </c>
-      <c r="F26" s="5">
-        <v>4</v>
-      </c>
-      <c r="G26" s="5">
-        <v>26175</v>
-      </c>
-      <c r="H26" s="5">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>10044</v>
-      </c>
-      <c r="D27" s="5">
-        <v>10044</v>
-      </c>
-      <c r="E27" s="5">
-        <v>52107</v>
-      </c>
-      <c r="F27" s="5">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5">
-        <v>51263</v>
-      </c>
-      <c r="H27" s="5">
-        <v>10</v>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5">
-        <v>10046</v>
-      </c>
-      <c r="D28" s="5">
-        <v>10046</v>
-      </c>
-      <c r="E28" s="5">
-        <v>52108</v>
-      </c>
-      <c r="F28" s="5">
-        <v>4</v>
-      </c>
-      <c r="G28" s="5">
-        <v>51263</v>
-      </c>
-      <c r="H28" s="5">
-        <v>10</v>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" s="5">
-        <v>17925</v>
+        <v>2878</v>
       </c>
       <c r="D29" s="5">
-        <v>17925</v>
-      </c>
-      <c r="E29" s="5">
-        <v>132245</v>
-      </c>
-      <c r="F29" s="5">
-        <v>4</v>
-      </c>
-      <c r="G29" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H29" s="5">
-        <v>16</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5">
-        <v>17927</v>
+        <v>19382</v>
       </c>
       <c r="D30" s="5">
-        <v>17927</v>
-      </c>
-      <c r="E30" s="5">
-        <v>132247</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4</v>
-      </c>
-      <c r="G30" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H30" s="5">
-        <v>16</v>
+        <v>11339</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="5">
-        <v>18207</v>
+        <v>19453</v>
       </c>
       <c r="D31" s="5">
-        <v>18207</v>
-      </c>
-      <c r="E31" s="5">
-        <v>132528</v>
-      </c>
-      <c r="F31" s="5">
-        <v>4</v>
-      </c>
-      <c r="G31" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H31" s="5">
-        <v>16</v>
+        <v>52144</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5">
+        <v>19618</v>
+      </c>
+      <c r="D32" s="5">
+        <v>132283</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5">
-        <v>18207</v>
-      </c>
-      <c r="D32" s="5">
-        <v>18207</v>
-      </c>
-      <c r="E32" s="5">
-        <v>132528</v>
-      </c>
-      <c r="F32" s="5">
-        <v>4</v>
-      </c>
-      <c r="G32" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H32" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" s="5">
-        <v>26436</v>
+        <v>19731</v>
       </c>
       <c r="D33" s="5">
-        <v>26436</v>
-      </c>
-      <c r="E33" s="5">
-        <v>140757</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5</v>
-      </c>
-      <c r="G33" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H33" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>132565</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="5">
-        <v>26437</v>
+        <v>19794</v>
       </c>
       <c r="D34" s="5">
-        <v>26437</v>
-      </c>
-      <c r="E34" s="5">
-        <v>140757</v>
-      </c>
-      <c r="F34" s="5">
-        <v>5</v>
-      </c>
-      <c r="G34" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H34" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>140831</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="5">
+        <v>19857</v>
+      </c>
+      <c r="D35" s="5">
+        <v>181589</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>19977</v>
+      </c>
+      <c r="D36" s="5">
+        <v>261727</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <v>19977</v>
+      </c>
+      <c r="D37" s="5">
+        <v>458125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="4"/>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1897</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2070</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5">
+        <v>18255</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3505</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>18325</v>
+      </c>
+      <c r="D44" s="5">
+        <v>10043</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>18491</v>
+      </c>
+      <c r="D45" s="5">
+        <v>30820</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5">
+        <v>18603</v>
+      </c>
+      <c r="D46" s="5">
+        <v>31102</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5">
+        <v>18667</v>
+      </c>
+      <c r="D47" s="5">
+        <v>39368</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2</v>
+      </c>
+      <c r="F47" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5">
+        <v>18730</v>
+      </c>
+      <c r="D48" s="5">
         <v>10045</v>
       </c>
-      <c r="D35" s="5">
-        <v>10045</v>
-      </c>
-      <c r="E35" s="5">
-        <v>181514</v>
-      </c>
-      <c r="F35" s="5">
-        <v>4</v>
-      </c>
-      <c r="G35" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H35" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5">
-        <v>10047</v>
-      </c>
-      <c r="D36" s="5">
-        <v>10047</v>
-      </c>
-      <c r="E36" s="5">
-        <v>181516</v>
-      </c>
-      <c r="F36" s="5">
-        <v>4</v>
-      </c>
-      <c r="G36" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H36" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="2" t="s">
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="5">
-        <v>17926</v>
-      </c>
-      <c r="D37" s="5">
-        <v>17926</v>
-      </c>
-      <c r="E37" s="5">
-        <v>261653</v>
-      </c>
-      <c r="F37" s="5">
-        <v>4</v>
-      </c>
-      <c r="G37" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H37" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5">
-        <v>17928</v>
-      </c>
-      <c r="D38" s="5">
-        <v>17928</v>
-      </c>
-      <c r="E38" s="5">
-        <v>261655</v>
-      </c>
-      <c r="F38" s="5">
-        <v>4</v>
-      </c>
-      <c r="G38" s="5">
-        <v>81042</v>
-      </c>
-      <c r="H38" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="5">
-        <v>40406</v>
-      </c>
-      <c r="D39" s="5">
-        <v>40406</v>
-      </c>
-      <c r="E39" s="5">
-        <v>458051</v>
-      </c>
-      <c r="F39" s="5">
-        <v>4</v>
-      </c>
-      <c r="G39" s="5">
-        <v>114066</v>
-      </c>
-      <c r="H39" s="5">
-        <v>37</v>
+      <c r="C49" s="5">
+        <v>18849</v>
+      </c>
+      <c r="D49" s="5">
+        <v>30821</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
+      <c r="F49" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5">
+        <v>18849</v>
+      </c>
+      <c r="D50" s="5">
+        <v>71933</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>